--- a/external/en/bulk_import_excel_example.xlsx
+++ b/external/en/bulk_import_excel_example.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CleverStaff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>Full Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Current Position</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Roposo</t>
   </si>
   <si>
-    <t>James Huddleston</t>
-  </si>
-  <si>
     <t>Android SDK, CSS, CSS3, dfdf, dfdsffsdfsd, Entity Framework, HTML5, JavaScript, Linux, Threads, XSD, Zend Framework (ZF)</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>Middle Java Script Developer</t>
   </si>
   <si>
-    <t>Syntia Nostra</t>
-  </si>
-  <si>
     <t>Sweeden</t>
   </si>
   <si>
@@ -171,13 +165,40 @@
   </si>
   <si>
     <t>Desired Position</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Huddleston</t>
+  </si>
+  <si>
+    <t>Nostra</t>
+  </si>
+  <si>
+    <t>Syntia</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Philip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -194,6 +215,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -233,10 +268,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,191 +587,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="7" max="8" width="18" customWidth="1"/>
-    <col min="9" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="39.140625" customWidth="1"/>
-    <col min="16" max="16" width="80" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="1" max="2" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="9" max="10" width="18" customWidth="1"/>
+    <col min="11" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="27.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
+    <col min="15" max="15" width="39.1640625" customWidth="1"/>
+    <col min="18" max="18" width="80" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>47</v>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2">
+        <v>3000</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3">
+        <v>12500</v>
+      </c>
+      <c r="Q3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2">
-        <v>3000</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3">
-        <v>12500</v>
-      </c>
-      <c r="O3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>40</v>
-      </c>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
